--- a/invest/路桥/宁沪高速/财务数据宁沪高速.xlsx
+++ b/invest/路桥/宁沪高速/财务数据宁沪高速.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="10515" windowHeight="3405" tabRatio="374" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="10515" windowHeight="3405" tabRatio="374" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="不可全信数据" sheetId="18" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="174">
   <si>
     <t>货币资金</t>
   </si>
@@ -458,9 +458,6 @@
   </si>
   <si>
     <t>2016 Q4 调整前</t>
-  </si>
-  <si>
-    <t>2014 Q4 调整前</t>
   </si>
   <si>
     <t>-</t>
@@ -472,6 +469,84 @@
   <si>
     <t>2015 Q4</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014 Q4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式差异大</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏广靖锡澄高速公路有限责任公司("广靖锡澄公司")</t>
+  </si>
+  <si>
+    <t>无锡</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>高速公路运营</t>
+  </si>
+  <si>
+    <t>投资设立</t>
+  </si>
+  <si>
+    <t>无锡靖澄广告公司</t>
+  </si>
+  <si>
+    <t>服务</t>
+  </si>
+  <si>
+    <t>江苏宁沪投资发展有限公司("宁沪投资")</t>
+  </si>
+  <si>
+    <t>投资、服务</t>
+  </si>
+  <si>
+    <t>江苏宁沪置业有限责任公司("宁沪置业")</t>
+  </si>
+  <si>
+    <t>南京、镇江</t>
+  </si>
+  <si>
+    <t>房地产</t>
+  </si>
+  <si>
+    <t>昆山丰源房地产开发有限公司("昆山丰源")</t>
+  </si>
+  <si>
+    <t>昆山</t>
+  </si>
+  <si>
+    <t>宁沪置业(昆山)有限公司("置业昆山")</t>
+  </si>
+  <si>
+    <t>宁沪置业(苏州)有限公司("置业苏州")</t>
+  </si>
+  <si>
+    <t>苏州</t>
+  </si>
+  <si>
+    <t>江苏镇丹高速公路有限公司(“镇丹公司”)</t>
+  </si>
+  <si>
+    <t>镇江</t>
+  </si>
+  <si>
+    <t>江苏宁常镇溧高速公路有限公司("宁常镇溧公司")</t>
+  </si>
+  <si>
+    <t>常州、镇江</t>
+  </si>
+  <si>
+    <t>同一控制下企业合并</t>
   </si>
 </sst>
 </file>
@@ -793,33 +868,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -852,6 +900,33 @@
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1200,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1213,7 +1288,7 @@
     <col min="4" max="4" width="29.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -1222,153 +1297,245 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="73" t="s">
+      <c r="F2" s="89"/>
+      <c r="G2" s="86" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="4" t="s">
         <v>137</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="74"/>
+      <c r="G3" s="87"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="72">
+        <v>85</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="72">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="72">
+        <v>100</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="72">
+        <v>100</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="72">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="72">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="72">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="72">
+        <v>70</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="A12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="72">
+        <v>100</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1389,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1413,12 +1580,15 @@
         <v>2015</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2014</v>
+      </c>
+      <c r="B11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -1437,10 +1607,10 @@
   <dimension ref="A1:Z331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1461,42 +1631,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B1" s="75">
+      <c r="B1" s="92">
         <v>2017</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92">
         <v>2016</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75">
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92">
         <v>2015</v>
       </c>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75">
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92">
         <v>2014</v>
       </c>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75">
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92">
         <v>2013</v>
       </c>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75">
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92">
         <v>2012</v>
       </c>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
     </row>
     <row r="2" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="9" t="s">
@@ -1594,13 +1764,17 @@
       <c r="L3" s="29"/>
       <c r="M3" s="47"/>
       <c r="N3" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O3" s="52"/>
       <c r="P3" s="29"/>
       <c r="Q3" s="47"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="52"/>
+      <c r="R3" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="S3" s="52" t="s">
+        <v>151</v>
+      </c>
       <c r="T3" s="29"/>
       <c r="U3" s="29"/>
       <c r="V3" s="29"/>
@@ -1613,7 +1787,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="F4" s="78"/>
+      <c r="F4" s="69"/>
       <c r="H4" s="32"/>
       <c r="J4" s="10"/>
       <c r="M4" s="50"/>
@@ -1628,21 +1802,23 @@
         <v>0</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="F5" s="78">
+      <c r="F5" s="69">
         <v>265422162</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="78">
+      <c r="J5" s="69">
         <v>255475447</v>
       </c>
       <c r="M5" s="50"/>
-      <c r="N5" s="80">
+      <c r="N5" s="71">
         <v>726415172</v>
       </c>
       <c r="O5" s="56"/>
       <c r="Q5" s="50"/>
-      <c r="R5" s="57"/>
+      <c r="R5" s="71">
+        <v>409176746</v>
+      </c>
       <c r="S5" s="56"/>
     </row>
     <row r="6" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.15">
@@ -1652,24 +1828,26 @@
       <c r="B6" s="10"/>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
-      <c r="F6" s="78">
+      <c r="F6" s="69">
         <v>33212717</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="32"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="78">
+      <c r="J6" s="69">
         <v>35887051</v>
       </c>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
       <c r="M6" s="48"/>
-      <c r="N6" s="79">
+      <c r="N6" s="70">
         <v>38951822</v>
       </c>
       <c r="O6" s="56"/>
       <c r="Q6" s="50"/>
-      <c r="R6" s="10"/>
+      <c r="R6" s="71">
+        <v>20175395</v>
+      </c>
       <c r="S6" s="56"/>
       <c r="V6" s="34"/>
     </row>
@@ -1680,7 +1858,7 @@
       <c r="B7" s="10"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
-      <c r="F7" s="78">
+      <c r="F7" s="69">
         <v>6116460</v>
       </c>
       <c r="G7" s="33"/>
@@ -1692,12 +1870,14 @@
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
       <c r="M7" s="48"/>
-      <c r="N7" s="80">
+      <c r="N7" s="71">
         <v>2518000</v>
       </c>
       <c r="O7" s="56"/>
       <c r="Q7" s="50"/>
-      <c r="R7" s="10"/>
+      <c r="R7" s="71">
+        <v>149843</v>
+      </c>
       <c r="S7" s="56"/>
       <c r="V7" s="34"/>
     </row>
@@ -1708,7 +1888,7 @@
       <c r="B8" s="10"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
-      <c r="F8" s="78">
+      <c r="F8" s="69">
         <v>148153297</v>
       </c>
       <c r="G8" s="33"/>
@@ -1720,12 +1900,14 @@
       <c r="K8" s="34"/>
       <c r="L8" s="33"/>
       <c r="M8" s="48"/>
-      <c r="N8" s="80">
+      <c r="N8" s="71">
         <v>117412597</v>
       </c>
       <c r="O8" s="56"/>
       <c r="Q8" s="50"/>
-      <c r="R8" s="57"/>
+      <c r="R8" s="71">
+        <v>51443626</v>
+      </c>
       <c r="S8" s="56"/>
       <c r="V8" s="34"/>
     </row>
@@ -1736,7 +1918,7 @@
       <c r="B9" s="10"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
-      <c r="F9" s="78">
+      <c r="F9" s="69">
         <v>16851683</v>
       </c>
       <c r="G9" s="33"/>
@@ -1748,12 +1930,14 @@
       <c r="K9" s="33"/>
       <c r="L9" s="34"/>
       <c r="M9" s="48"/>
-      <c r="N9" s="80">
+      <c r="N9" s="71">
         <v>266879166</v>
       </c>
       <c r="O9" s="56"/>
       <c r="Q9" s="50"/>
-      <c r="R9" s="57"/>
+      <c r="R9" s="70">
+        <v>21028742</v>
+      </c>
       <c r="S9" s="56"/>
       <c r="V9" s="34"/>
     </row>
@@ -1764,7 +1948,7 @@
       <c r="B10" s="10"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
-      <c r="F10" s="78">
+      <c r="F10" s="69">
         <v>45694000</v>
       </c>
       <c r="G10" s="33"/>
@@ -1776,12 +1960,12 @@
       <c r="K10" s="33"/>
       <c r="L10" s="34"/>
       <c r="M10" s="48"/>
-      <c r="N10" s="80" t="s">
-        <v>147</v>
+      <c r="N10" s="71" t="s">
+        <v>146</v>
       </c>
       <c r="O10" s="56"/>
       <c r="Q10" s="50"/>
-      <c r="R10" s="57"/>
+      <c r="R10" s="71"/>
       <c r="S10" s="56"/>
       <c r="V10" s="33"/>
     </row>
@@ -1792,7 +1976,7 @@
       <c r="B11" s="10"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="78">
+      <c r="F11" s="69">
         <v>4989960</v>
       </c>
       <c r="G11" s="33"/>
@@ -1804,12 +1988,14 @@
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="61"/>
-      <c r="N11" s="80">
+      <c r="N11" s="71">
         <v>4989960</v>
       </c>
       <c r="O11" s="56"/>
       <c r="Q11" s="50"/>
-      <c r="R11" s="57"/>
+      <c r="R11" s="71">
+        <v>4989960</v>
+      </c>
       <c r="S11" s="56"/>
       <c r="V11" s="34"/>
     </row>
@@ -1820,24 +2006,26 @@
       <c r="B12" s="10"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="78">
+      <c r="F12" s="69">
         <v>422083818</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="32"/>
       <c r="I12" s="34"/>
-      <c r="J12" s="78">
+      <c r="J12" s="69">
         <v>812198353</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="33"/>
       <c r="M12" s="48"/>
-      <c r="N12" s="79">
+      <c r="N12" s="70">
         <v>1224608057</v>
       </c>
       <c r="O12" s="56"/>
       <c r="Q12" s="50"/>
-      <c r="R12" s="57"/>
+      <c r="R12" s="71">
+        <v>1227304888</v>
+      </c>
       <c r="S12" s="56"/>
       <c r="V12" s="34"/>
     </row>
@@ -1848,24 +2036,26 @@
       <c r="B13" s="10"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="78">
+      <c r="F13" s="69">
         <v>3142326304</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="32"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="78">
+      <c r="J13" s="69">
         <v>3256454567</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="34"/>
       <c r="M13" s="48"/>
-      <c r="N13" s="79">
+      <c r="N13" s="70">
         <v>3091938748</v>
       </c>
       <c r="O13" s="56"/>
       <c r="Q13" s="50"/>
-      <c r="R13" s="10"/>
+      <c r="R13" s="70">
+        <v>2844577736</v>
+      </c>
       <c r="S13" s="56"/>
       <c r="V13" s="34"/>
     </row>
@@ -1876,24 +2066,26 @@
       <c r="B14" s="10"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="78">
+      <c r="F14" s="69">
         <v>326161615</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="32"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="78">
+      <c r="J14" s="69">
         <v>502774234</v>
       </c>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
       <c r="M14" s="48"/>
-      <c r="N14" s="79">
+      <c r="N14" s="70">
         <v>231636482</v>
       </c>
       <c r="O14" s="56"/>
       <c r="Q14" s="50"/>
-      <c r="R14" s="10"/>
+      <c r="R14" s="70">
+        <v>175082464</v>
+      </c>
       <c r="S14" s="56"/>
       <c r="V14" s="33"/>
     </row>
@@ -1904,24 +2096,26 @@
       <c r="B15" s="10"/>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="78">
+      <c r="F15" s="69">
         <v>4411012016</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="32"/>
       <c r="I15" s="34"/>
-      <c r="J15" s="78">
+      <c r="J15" s="69">
         <v>5026087145</v>
       </c>
       <c r="K15" s="34"/>
       <c r="L15" s="33"/>
       <c r="M15" s="61"/>
-      <c r="N15" s="79">
+      <c r="N15" s="70">
         <v>5705350004</v>
       </c>
       <c r="O15" s="56"/>
       <c r="Q15" s="50"/>
-      <c r="R15" s="57"/>
+      <c r="R15" s="71">
+        <v>4753929400</v>
+      </c>
       <c r="S15" s="56"/>
       <c r="V15" s="33"/>
     </row>
@@ -1940,10 +2134,10 @@
       <c r="K16" s="33"/>
       <c r="L16" s="34"/>
       <c r="M16" s="48"/>
-      <c r="N16" s="80"/>
+      <c r="N16" s="71"/>
       <c r="O16" s="56"/>
       <c r="Q16" s="50"/>
-      <c r="R16" s="57"/>
+      <c r="R16" s="71"/>
       <c r="S16" s="56"/>
       <c r="V16" s="33"/>
     </row>
@@ -1954,7 +2148,7 @@
       <c r="B17" s="10"/>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
-      <c r="F17" s="78">
+      <c r="F17" s="69">
         <v>2086127987</v>
       </c>
       <c r="G17" s="33"/>
@@ -1966,12 +2160,14 @@
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="48"/>
-      <c r="N17" s="80">
+      <c r="N17" s="71">
         <v>1313185957</v>
       </c>
       <c r="O17" s="56"/>
       <c r="Q17" s="50"/>
-      <c r="R17" s="10"/>
+      <c r="R17" s="71">
+        <v>1290725956</v>
+      </c>
       <c r="S17" s="56"/>
       <c r="V17" s="33"/>
     </row>
@@ -1982,7 +2178,7 @@
       <c r="B18" s="10"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
-      <c r="F18" s="78">
+      <c r="F18" s="69">
         <v>4771195958</v>
       </c>
       <c r="G18" s="33"/>
@@ -1993,12 +2189,14 @@
       </c>
       <c r="K18" s="34"/>
       <c r="M18" s="48"/>
-      <c r="N18" s="80">
+      <c r="N18" s="71">
         <v>4174591269</v>
       </c>
       <c r="O18" s="56"/>
       <c r="Q18" s="50"/>
-      <c r="R18" s="57"/>
+      <c r="R18" s="71">
+        <v>3787359931</v>
+      </c>
       <c r="S18" s="56"/>
       <c r="V18" s="33"/>
     </row>
@@ -2009,7 +2207,7 @@
       <c r="B19" s="11"/>
       <c r="D19" s="35"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="78">
+      <c r="F19" s="69">
         <v>32113394</v>
       </c>
       <c r="G19" s="33"/>
@@ -2021,12 +2219,14 @@
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="48"/>
-      <c r="N19" s="80">
+      <c r="N19" s="71">
         <v>34284836</v>
       </c>
       <c r="O19" s="62"/>
       <c r="Q19" s="64"/>
-      <c r="R19" s="57"/>
+      <c r="R19" s="71">
+        <v>35415146</v>
+      </c>
       <c r="S19" s="62"/>
       <c r="V19" s="34"/>
     </row>
@@ -2036,7 +2236,7 @@
       </c>
       <c r="B20" s="10"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="78">
+      <c r="F20" s="69">
         <v>1734084711</v>
       </c>
       <c r="G20" s="33"/>
@@ -2048,12 +2248,14 @@
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
       <c r="M20" s="61"/>
-      <c r="N20" s="80">
+      <c r="N20" s="71">
         <v>1802660953</v>
       </c>
       <c r="O20" s="56"/>
       <c r="Q20" s="50"/>
-      <c r="R20" s="57"/>
+      <c r="R20" s="71">
+        <v>1099548420</v>
+      </c>
       <c r="S20" s="56"/>
       <c r="V20" s="34"/>
     </row>
@@ -2064,24 +2266,26 @@
       <c r="B21" s="10"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
-      <c r="F21" s="78">
+      <c r="F21" s="69">
         <v>1197809229</v>
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="32"/>
       <c r="I21" s="33"/>
-      <c r="J21" s="78">
+      <c r="J21" s="69">
         <v>1030127104</v>
       </c>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="48"/>
-      <c r="N21" s="79">
+      <c r="N21" s="70">
         <v>258800371</v>
       </c>
       <c r="O21" s="56"/>
       <c r="Q21" s="50"/>
-      <c r="R21" s="57"/>
+      <c r="R21" s="71">
+        <v>127708416</v>
+      </c>
       <c r="S21" s="56"/>
       <c r="V21" s="34"/>
     </row>
@@ -2092,24 +2296,26 @@
       <c r="B22" s="10"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
-      <c r="F22" s="78">
+      <c r="F22" s="69">
         <v>21324779176</v>
       </c>
       <c r="G22" s="33"/>
       <c r="H22" s="32"/>
       <c r="I22" s="33"/>
-      <c r="J22" s="78">
+      <c r="J22" s="69">
         <v>22238627984</v>
       </c>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="48"/>
-      <c r="N22" s="79">
+      <c r="N22" s="70">
         <v>24136118565</v>
       </c>
       <c r="O22" s="56"/>
       <c r="Q22" s="50"/>
-      <c r="R22" s="57"/>
+      <c r="R22" s="71">
+        <v>15721750642</v>
+      </c>
       <c r="S22" s="56"/>
       <c r="V22" s="34"/>
     </row>
@@ -2120,7 +2326,7 @@
       <c r="B23" s="10"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
-      <c r="F23" s="78">
+      <c r="F23" s="69">
         <v>3628179</v>
       </c>
       <c r="G23" s="33"/>
@@ -2132,12 +2338,14 @@
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="48"/>
-      <c r="N23" s="80">
+      <c r="N23" s="71">
         <v>6418189</v>
       </c>
       <c r="O23" s="56"/>
       <c r="Q23" s="50"/>
-      <c r="R23" s="57"/>
+      <c r="R23" s="71">
+        <v>1166864</v>
+      </c>
       <c r="S23" s="56"/>
       <c r="V23" s="34"/>
     </row>
@@ -2148,24 +2356,26 @@
       <c r="B24" s="10"/>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
-      <c r="F24" s="78">
+      <c r="F24" s="69">
         <v>345345094</v>
       </c>
       <c r="G24" s="33"/>
       <c r="H24" s="32"/>
       <c r="I24" s="34"/>
-      <c r="J24" s="78">
+      <c r="J24" s="69">
         <v>398938783</v>
       </c>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="48"/>
-      <c r="N24" s="79">
+      <c r="N24" s="70">
         <v>49806472</v>
       </c>
       <c r="O24" s="56"/>
       <c r="Q24" s="50"/>
-      <c r="R24" s="57"/>
+      <c r="R24" s="71">
+        <v>16307595</v>
+      </c>
       <c r="S24" s="56"/>
       <c r="V24" s="34"/>
     </row>
@@ -2176,24 +2386,24 @@
       <c r="B25" s="10"/>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
-      <c r="F25" s="78">
+      <c r="F25" s="69">
         <v>376477785</v>
       </c>
       <c r="G25" s="33"/>
       <c r="H25" s="32"/>
       <c r="I25" s="34"/>
-      <c r="J25" s="78">
+      <c r="J25" s="69">
         <v>300000000</v>
       </c>
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
       <c r="M25" s="48"/>
-      <c r="N25" s="79" t="s">
-        <v>147</v>
+      <c r="N25" s="70" t="s">
+        <v>146</v>
       </c>
       <c r="O25" s="56"/>
       <c r="Q25" s="50"/>
-      <c r="R25" s="57"/>
+      <c r="R25" s="71"/>
       <c r="S25" s="56"/>
       <c r="V25" s="34"/>
     </row>
@@ -2204,7 +2414,7 @@
       <c r="B26" s="10"/>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
-      <c r="F26" s="78">
+      <c r="F26" s="69">
         <v>31871561513</v>
       </c>
       <c r="G26" s="33"/>
@@ -2216,12 +2426,14 @@
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
       <c r="M26" s="48"/>
-      <c r="N26" s="80">
+      <c r="N26" s="71">
         <v>31775866612</v>
       </c>
       <c r="O26" s="56"/>
       <c r="Q26" s="50"/>
-      <c r="R26" s="57"/>
+      <c r="R26" s="70">
+        <v>22079982970</v>
+      </c>
       <c r="S26" s="56"/>
       <c r="V26" s="34"/>
     </row>
@@ -2232,7 +2444,7 @@
       <c r="B27" s="10"/>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
-      <c r="F27" s="78">
+      <c r="F27" s="69">
         <v>36282573529</v>
       </c>
       <c r="G27" s="33"/>
@@ -2244,12 +2456,14 @@
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
       <c r="M27" s="48"/>
-      <c r="N27" s="80">
+      <c r="N27" s="71">
         <v>37481216616</v>
       </c>
       <c r="O27" s="56"/>
       <c r="Q27" s="50"/>
-      <c r="R27" s="57"/>
+      <c r="R27" s="71">
+        <v>26833912370</v>
+      </c>
       <c r="S27" s="56"/>
       <c r="V27" s="34"/>
     </row>
@@ -2268,10 +2482,10 @@
       <c r="K28" s="33"/>
       <c r="L28" s="34"/>
       <c r="M28" s="48"/>
-      <c r="N28" s="80"/>
+      <c r="N28" s="71"/>
       <c r="O28" s="56"/>
       <c r="Q28" s="50"/>
-      <c r="R28" s="57"/>
+      <c r="R28" s="72"/>
       <c r="S28" s="56"/>
       <c r="V28" s="33"/>
     </row>
@@ -2282,7 +2496,7 @@
       <c r="B29" s="10"/>
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
-      <c r="F29" s="78">
+      <c r="F29" s="69">
         <v>810000000</v>
       </c>
       <c r="G29" s="33"/>
@@ -2294,12 +2508,14 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
       <c r="M29" s="48"/>
-      <c r="N29" s="80">
+      <c r="N29" s="71">
         <v>3005000000</v>
       </c>
       <c r="O29" s="56"/>
       <c r="Q29" s="50"/>
-      <c r="R29" s="57"/>
+      <c r="R29" s="71">
+        <v>3220000000</v>
+      </c>
       <c r="S29" s="56"/>
       <c r="V29" s="34"/>
     </row>
@@ -2310,7 +2526,7 @@
       <c r="B30" s="10"/>
       <c r="D30" s="34"/>
       <c r="E30" s="34"/>
-      <c r="F30" s="78">
+      <c r="F30" s="69">
         <v>987946428</v>
       </c>
       <c r="G30" s="33"/>
@@ -2322,12 +2538,14 @@
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
       <c r="M30" s="48"/>
-      <c r="N30" s="80">
+      <c r="N30" s="71">
         <v>767168706</v>
       </c>
       <c r="O30" s="56"/>
       <c r="Q30" s="50"/>
-      <c r="R30" s="57"/>
+      <c r="R30" s="71">
+        <v>371663489</v>
+      </c>
       <c r="S30" s="56"/>
       <c r="V30" s="34"/>
     </row>
@@ -2338,7 +2556,7 @@
       <c r="B31" s="10"/>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
-      <c r="F31" s="78">
+      <c r="F31" s="69">
         <v>940873359</v>
       </c>
       <c r="G31" s="33"/>
@@ -2350,12 +2568,14 @@
       <c r="K31" s="34"/>
       <c r="L31" s="33"/>
       <c r="M31" s="48"/>
-      <c r="N31" s="80">
+      <c r="N31" s="71">
         <v>375468300</v>
       </c>
       <c r="O31" s="56"/>
       <c r="Q31" s="50"/>
-      <c r="R31" s="57"/>
+      <c r="R31" s="71">
+        <v>412906626</v>
+      </c>
       <c r="S31" s="56"/>
       <c r="V31" s="34"/>
     </row>
@@ -2366,7 +2586,7 @@
       <c r="B32" s="10"/>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
-      <c r="F32" s="78">
+      <c r="F32" s="69">
         <v>4816324</v>
       </c>
       <c r="G32" s="33"/>
@@ -2378,12 +2598,14 @@
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
       <c r="M32" s="48"/>
-      <c r="N32" s="80">
+      <c r="N32" s="71">
         <v>5624993</v>
       </c>
       <c r="O32" s="56"/>
       <c r="Q32" s="50"/>
-      <c r="R32" s="57"/>
+      <c r="R32" s="71">
+        <v>902085</v>
+      </c>
       <c r="S32" s="56"/>
       <c r="V32" s="34"/>
     </row>
@@ -2394,7 +2616,7 @@
       <c r="B33" s="10"/>
       <c r="D33" s="34"/>
       <c r="E33" s="34"/>
-      <c r="F33" s="78">
+      <c r="F33" s="69">
         <v>231702787</v>
       </c>
       <c r="G33" s="33"/>
@@ -2406,12 +2628,14 @@
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
       <c r="M33" s="48"/>
-      <c r="N33" s="80">
+      <c r="N33" s="71">
         <v>102377617</v>
       </c>
       <c r="O33" s="56"/>
       <c r="Q33" s="50"/>
-      <c r="R33" s="57"/>
+      <c r="R33" s="71">
+        <v>155966927</v>
+      </c>
       <c r="S33" s="56"/>
       <c r="V33" s="34"/>
     </row>
@@ -2422,7 +2646,7 @@
       <c r="B34" s="11"/>
       <c r="D34" s="35"/>
       <c r="E34" s="34"/>
-      <c r="F34" s="78">
+      <c r="F34" s="69">
         <v>92220187</v>
       </c>
       <c r="G34" s="33"/>
@@ -2434,12 +2658,14 @@
       <c r="K34" s="34"/>
       <c r="L34" s="34"/>
       <c r="M34" s="48"/>
-      <c r="N34" s="80">
+      <c r="N34" s="71">
         <v>115056758</v>
       </c>
       <c r="O34" s="62"/>
       <c r="Q34" s="64"/>
-      <c r="R34" s="57"/>
+      <c r="R34" s="70">
+        <v>71283765</v>
+      </c>
       <c r="S34" s="62"/>
       <c r="V34" s="34"/>
     </row>
@@ -2450,7 +2676,7 @@
       <c r="B35" s="10"/>
       <c r="D35" s="34"/>
       <c r="E35" s="34"/>
-      <c r="F35" s="78">
+      <c r="F35" s="69">
         <v>73614218</v>
       </c>
       <c r="G35" s="33"/>
@@ -2462,12 +2688,14 @@
       <c r="K35" s="34"/>
       <c r="L35" s="34"/>
       <c r="M35" s="48"/>
-      <c r="N35" s="80">
+      <c r="N35" s="71">
         <v>68678625</v>
       </c>
       <c r="O35" s="56"/>
       <c r="Q35" s="50"/>
-      <c r="R35" s="57"/>
+      <c r="R35" s="70">
+        <v>62903610</v>
+      </c>
       <c r="S35" s="56"/>
       <c r="V35" s="34"/>
     </row>
@@ -2477,24 +2705,26 @@
       </c>
       <c r="B36" s="10"/>
       <c r="E36" s="34"/>
-      <c r="F36" s="78">
+      <c r="F36" s="69">
         <v>39984545</v>
       </c>
       <c r="G36" s="33"/>
       <c r="H36" s="32"/>
       <c r="I36" s="33"/>
-      <c r="J36" s="78">
+      <c r="J36" s="69">
         <v>80687691</v>
       </c>
       <c r="K36" s="34"/>
       <c r="L36" s="34"/>
       <c r="M36" s="48"/>
-      <c r="N36" s="79">
+      <c r="N36" s="70">
         <v>58896322</v>
       </c>
       <c r="O36" s="56"/>
       <c r="Q36" s="50"/>
-      <c r="R36" s="57"/>
+      <c r="R36" s="70">
+        <v>174955870</v>
+      </c>
       <c r="S36" s="56"/>
       <c r="V36" s="34"/>
     </row>
@@ -2504,7 +2734,7 @@
       </c>
       <c r="B37" s="10"/>
       <c r="E37" s="34"/>
-      <c r="F37" s="78">
+      <c r="F37" s="69">
         <v>121718718</v>
       </c>
       <c r="G37" s="33"/>
@@ -2516,12 +2746,14 @@
       <c r="K37" s="34"/>
       <c r="L37" s="34"/>
       <c r="M37" s="48"/>
-      <c r="N37" s="80">
+      <c r="N37" s="71">
         <v>1029826457</v>
       </c>
       <c r="O37" s="56"/>
       <c r="Q37" s="50"/>
-      <c r="R37" s="57"/>
+      <c r="R37" s="71">
+        <v>1510574</v>
+      </c>
       <c r="S37" s="56"/>
       <c r="V37" s="34"/>
     </row>
@@ -2532,7 +2764,7 @@
       <c r="B38" s="10"/>
       <c r="D38" s="34"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="78">
+      <c r="F38" s="69">
         <v>3936452668</v>
       </c>
       <c r="G38" s="33"/>
@@ -2544,12 +2776,14 @@
       <c r="K38" s="34"/>
       <c r="L38" s="34"/>
       <c r="M38" s="48"/>
-      <c r="N38" s="80">
+      <c r="N38" s="71">
         <v>3548749165</v>
       </c>
       <c r="O38" s="56"/>
       <c r="Q38" s="50"/>
-      <c r="R38" s="57"/>
+      <c r="R38" s="70">
+        <v>1000000000</v>
+      </c>
       <c r="S38" s="56"/>
       <c r="V38" s="34"/>
     </row>
@@ -2560,7 +2794,7 @@
       <c r="B39" s="10"/>
       <c r="D39" s="34"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="78">
+      <c r="F39" s="69">
         <v>7239329234</v>
       </c>
       <c r="G39" s="33"/>
@@ -2572,12 +2806,14 @@
       <c r="K39" s="34"/>
       <c r="L39" s="34"/>
       <c r="M39" s="61"/>
-      <c r="N39" s="80">
+      <c r="N39" s="71">
         <v>9076846943</v>
       </c>
       <c r="O39" s="56"/>
       <c r="Q39" s="50"/>
-      <c r="R39" s="10"/>
+      <c r="R39" s="70">
+        <v>5472092946</v>
+      </c>
       <c r="S39" s="56"/>
       <c r="V39" s="34"/>
     </row>
@@ -2596,10 +2832,10 @@
       <c r="K40" s="34"/>
       <c r="L40" s="34"/>
       <c r="M40" s="48"/>
-      <c r="N40" s="80"/>
+      <c r="N40" s="71"/>
       <c r="O40" s="56"/>
       <c r="Q40" s="50"/>
-      <c r="R40" s="57"/>
+      <c r="R40" s="72"/>
       <c r="S40" s="56"/>
       <c r="V40" s="34"/>
     </row>
@@ -2610,7 +2846,7 @@
       <c r="B41" s="10"/>
       <c r="D41" s="34"/>
       <c r="E41" s="34"/>
-      <c r="F41" s="78">
+      <c r="F41" s="69">
         <v>1471905901</v>
       </c>
       <c r="G41" s="33"/>
@@ -2622,12 +2858,14 @@
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
       <c r="M41" s="48"/>
-      <c r="N41" s="80">
+      <c r="N41" s="71">
         <v>6172708646</v>
       </c>
       <c r="O41" s="56"/>
       <c r="Q41" s="50"/>
-      <c r="R41" s="57"/>
+      <c r="R41" s="71">
+        <v>271148039</v>
+      </c>
       <c r="S41" s="56"/>
       <c r="V41" s="33"/>
     </row>
@@ -2638,7 +2876,7 @@
       <c r="B42" s="10"/>
       <c r="D42" s="34"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="78">
+      <c r="F42" s="69">
         <v>4457801187</v>
       </c>
       <c r="G42" s="33"/>
@@ -2650,12 +2888,14 @@
       <c r="K42" s="34"/>
       <c r="L42" s="34"/>
       <c r="M42" s="48"/>
-      <c r="N42" s="80">
+      <c r="N42" s="71">
         <v>494603286</v>
       </c>
       <c r="O42" s="56"/>
       <c r="Q42" s="50"/>
-      <c r="R42" s="57"/>
+      <c r="R42" s="70">
+        <v>991074397</v>
+      </c>
       <c r="S42" s="56"/>
       <c r="V42" s="33"/>
     </row>
@@ -2666,7 +2906,7 @@
       <c r="B43" s="10"/>
       <c r="D43" s="34"/>
       <c r="E43" s="34"/>
-      <c r="F43" s="78">
+      <c r="F43" s="69">
         <v>33317704</v>
       </c>
       <c r="G43" s="33"/>
@@ -2678,12 +2918,12 @@
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
       <c r="M43" s="48"/>
-      <c r="N43" s="80">
+      <c r="N43" s="71">
         <v>36199928</v>
       </c>
       <c r="O43" s="56"/>
       <c r="Q43" s="50"/>
-      <c r="R43" s="57"/>
+      <c r="R43" s="72"/>
       <c r="S43" s="56"/>
       <c r="V43" s="33"/>
     </row>
@@ -2694,7 +2934,7 @@
       <c r="B44" s="10"/>
       <c r="D44" s="34"/>
       <c r="E44" s="34"/>
-      <c r="F44" s="78">
+      <c r="F44" s="69">
         <v>138362514</v>
       </c>
       <c r="G44" s="33"/>
@@ -2706,12 +2946,14 @@
       <c r="K44" s="34"/>
       <c r="L44" s="34"/>
       <c r="M44" s="48"/>
-      <c r="N44" s="80">
+      <c r="N44" s="71">
         <v>1275048</v>
       </c>
       <c r="O44" s="56"/>
       <c r="Q44" s="50"/>
-      <c r="R44" s="57"/>
+      <c r="R44" s="71">
+        <v>1369249</v>
+      </c>
       <c r="S44" s="56"/>
       <c r="V44" s="34"/>
     </row>
@@ -2722,24 +2964,26 @@
       <c r="B45" s="10"/>
       <c r="D45" s="34"/>
       <c r="E45" s="34"/>
-      <c r="F45" s="78">
+      <c r="F45" s="69">
         <v>6101387306</v>
       </c>
       <c r="G45" s="33"/>
       <c r="H45" s="32"/>
       <c r="I45" s="34"/>
-      <c r="J45" s="78">
+      <c r="J45" s="69">
         <v>4876664748</v>
       </c>
       <c r="K45" s="34"/>
       <c r="L45" s="34"/>
       <c r="M45" s="48"/>
-      <c r="N45" s="79">
+      <c r="N45" s="70">
         <v>6704786908</v>
       </c>
       <c r="O45" s="56"/>
       <c r="Q45" s="50"/>
-      <c r="R45" s="57"/>
+      <c r="R45" s="71">
+        <v>1263591685</v>
+      </c>
       <c r="S45" s="56"/>
       <c r="V45" s="34"/>
     </row>
@@ -2750,7 +2994,7 @@
       <c r="B46" s="10"/>
       <c r="D46" s="34"/>
       <c r="E46" s="34"/>
-      <c r="F46" s="78">
+      <c r="F46" s="69">
         <v>13340716540</v>
       </c>
       <c r="G46" s="33"/>
@@ -2762,12 +3006,14 @@
       <c r="K46" s="34"/>
       <c r="L46" s="34"/>
       <c r="M46" s="48"/>
-      <c r="N46" s="80">
+      <c r="N46" s="71">
         <v>15781633851</v>
       </c>
       <c r="O46" s="56"/>
       <c r="Q46" s="50"/>
-      <c r="R46" s="57"/>
+      <c r="R46" s="71">
+        <v>6735684631</v>
+      </c>
       <c r="S46" s="56"/>
       <c r="V46" s="34"/>
     </row>
@@ -2786,10 +3032,10 @@
       <c r="K47" s="34"/>
       <c r="L47" s="34"/>
       <c r="M47" s="48"/>
-      <c r="N47" s="81"/>
+      <c r="N47" s="72"/>
       <c r="O47" s="56"/>
       <c r="Q47" s="50"/>
-      <c r="R47" s="10"/>
+      <c r="R47" s="71"/>
       <c r="S47" s="56"/>
       <c r="V47" s="34"/>
     </row>
@@ -2800,7 +3046,7 @@
       <c r="B48" s="10"/>
       <c r="D48" s="34"/>
       <c r="E48" s="34"/>
-      <c r="F48" s="78">
+      <c r="F48" s="69">
         <v>5037747500</v>
       </c>
       <c r="G48" s="33"/>
@@ -2812,12 +3058,14 @@
       <c r="K48" s="34"/>
       <c r="L48" s="34"/>
       <c r="M48" s="48"/>
-      <c r="N48" s="80">
+      <c r="N48" s="71">
         <v>5037747500</v>
       </c>
       <c r="O48" s="56"/>
       <c r="Q48" s="50"/>
-      <c r="R48" s="57"/>
+      <c r="R48" s="71">
+        <v>5037747500</v>
+      </c>
       <c r="S48" s="56"/>
       <c r="V48" s="33"/>
     </row>
@@ -2828,24 +3076,26 @@
       <c r="B49" s="10"/>
       <c r="D49" s="34"/>
       <c r="E49" s="34"/>
-      <c r="F49" s="78">
+      <c r="F49" s="69">
         <v>10428388235</v>
       </c>
       <c r="G49" s="33"/>
       <c r="H49" s="32"/>
       <c r="I49" s="34"/>
-      <c r="J49" s="78">
+      <c r="J49" s="69">
         <v>10446662341</v>
       </c>
       <c r="K49" s="34"/>
       <c r="L49" s="34"/>
       <c r="M49" s="48"/>
-      <c r="N49" s="79">
+      <c r="N49" s="70">
         <v>11511362341</v>
       </c>
       <c r="O49" s="56"/>
       <c r="Q49" s="50"/>
-      <c r="R49" s="57"/>
+      <c r="R49" s="70">
+        <v>7483554188</v>
+      </c>
       <c r="S49" s="56"/>
       <c r="V49" s="33"/>
     </row>
@@ -2856,24 +3106,26 @@
       <c r="B50" s="10"/>
       <c r="D50" s="34"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="78">
+      <c r="F50" s="69">
         <v>542389052</v>
       </c>
       <c r="G50" s="33"/>
       <c r="H50" s="32"/>
       <c r="I50" s="33"/>
-      <c r="J50" s="78">
+      <c r="J50" s="69">
         <v>121482904</v>
       </c>
       <c r="K50" s="33"/>
       <c r="L50" s="34"/>
       <c r="M50" s="48"/>
-      <c r="N50" s="79">
+      <c r="N50" s="70">
         <v>188889048</v>
       </c>
       <c r="O50" s="56"/>
       <c r="Q50" s="50"/>
-      <c r="R50" s="57"/>
+      <c r="R50" s="70">
+        <v>95858321</v>
+      </c>
       <c r="S50" s="56"/>
       <c r="V50" s="33"/>
     </row>
@@ -2884,7 +3136,7 @@
       <c r="B51" s="10"/>
       <c r="D51" s="34"/>
       <c r="E51" s="34"/>
-      <c r="F51" s="78">
+      <c r="F51" s="69">
         <v>3153173160</v>
       </c>
       <c r="G51" s="33"/>
@@ -2896,12 +3148,14 @@
       <c r="K51" s="33"/>
       <c r="L51" s="34"/>
       <c r="M51" s="48"/>
-      <c r="N51" s="80">
+      <c r="N51" s="71">
         <v>2927043693</v>
       </c>
       <c r="O51" s="56"/>
       <c r="Q51" s="50"/>
-      <c r="R51" s="57"/>
+      <c r="R51" s="70">
+        <v>2833298081</v>
+      </c>
       <c r="S51" s="56"/>
       <c r="V51" s="34"/>
     </row>
@@ -2912,7 +3166,7 @@
       <c r="B52" s="10"/>
       <c r="D52" s="34"/>
       <c r="E52" s="34"/>
-      <c r="F52" s="78">
+      <c r="F52" s="69">
         <v>3048058238</v>
       </c>
       <c r="G52" s="33"/>
@@ -2924,12 +3178,14 @@
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
       <c r="M52" s="48"/>
-      <c r="N52" s="80">
+      <c r="N52" s="71">
         <v>1350937480</v>
       </c>
       <c r="O52" s="56"/>
       <c r="Q52" s="50"/>
-      <c r="R52" s="57"/>
+      <c r="R52" s="70">
+        <v>4146025799</v>
+      </c>
       <c r="S52" s="56"/>
       <c r="V52" s="34"/>
     </row>
@@ -2939,7 +3195,7 @@
       </c>
       <c r="B53" s="10"/>
       <c r="D53" s="34"/>
-      <c r="F53" s="78">
+      <c r="F53" s="69">
         <v>22209756185</v>
       </c>
       <c r="G53" s="33"/>
@@ -2950,12 +3206,14 @@
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
       <c r="M53" s="48"/>
-      <c r="N53" s="80">
+      <c r="N53" s="71">
         <v>21015980062</v>
       </c>
       <c r="O53" s="56"/>
       <c r="Q53" s="50"/>
-      <c r="R53" s="57"/>
+      <c r="R53" s="70">
+        <v>19596483889</v>
+      </c>
       <c r="S53" s="56"/>
       <c r="V53" s="34"/>
     </row>
@@ -2966,7 +3224,7 @@
       <c r="B54" s="10"/>
       <c r="D54" s="34"/>
       <c r="E54" s="34"/>
-      <c r="F54" s="78">
+      <c r="F54" s="69">
         <v>732100804</v>
       </c>
       <c r="G54" s="33"/>
@@ -2978,12 +3236,14 @@
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
       <c r="M54" s="48"/>
-      <c r="N54" s="80">
+      <c r="N54" s="71">
         <v>683602703</v>
       </c>
       <c r="O54" s="56"/>
       <c r="Q54" s="50"/>
-      <c r="R54" s="57"/>
+      <c r="R54" s="70">
+        <v>501743850</v>
+      </c>
       <c r="S54" s="56"/>
       <c r="V54" s="34"/>
     </row>
@@ -2994,7 +3254,7 @@
       <c r="B55" s="10"/>
       <c r="D55" s="34"/>
       <c r="E55" s="34"/>
-      <c r="F55" s="78">
+      <c r="F55" s="69">
         <v>22941856989</v>
       </c>
       <c r="G55" s="33"/>
@@ -3006,12 +3266,14 @@
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
       <c r="M55" s="48"/>
-      <c r="N55" s="80">
+      <c r="N55" s="71">
         <v>21699582765</v>
       </c>
       <c r="O55" s="56"/>
       <c r="Q55" s="50"/>
-      <c r="R55" s="57"/>
+      <c r="R55" s="70">
+        <v>20098227739</v>
+      </c>
       <c r="S55" s="56"/>
       <c r="V55" s="34"/>
     </row>
@@ -3022,7 +3284,7 @@
       <c r="B56" s="10"/>
       <c r="D56" s="34"/>
       <c r="E56" s="34"/>
-      <c r="F56" s="78">
+      <c r="F56" s="69">
         <v>36282573529</v>
       </c>
       <c r="G56" s="33"/>
@@ -3034,12 +3296,14 @@
       <c r="K56" s="33"/>
       <c r="L56" s="34"/>
       <c r="M56" s="48"/>
-      <c r="N56" s="80">
+      <c r="N56" s="71">
         <v>37481216616</v>
       </c>
       <c r="O56" s="56"/>
       <c r="Q56" s="50"/>
-      <c r="R56" s="57"/>
+      <c r="R56" s="70">
+        <v>26833912370</v>
+      </c>
       <c r="S56" s="56"/>
       <c r="V56" s="34"/>
     </row>
@@ -5778,7 +6042,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
+      <selection pane="bottomRight" activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5797,54 +6061,54 @@
     <col min="14" max="14" width="18.375" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.875" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="13.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.375" style="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.875" style="17" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="75">
+      <c r="B1" s="92">
         <v>2017</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92">
         <v>2016</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75">
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92">
         <v>2015</v>
       </c>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75">
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92">
         <v>2014</v>
       </c>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75">
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92">
         <v>2013</v>
       </c>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75">
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92">
         <v>2012</v>
       </c>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
     </row>
     <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="76"/>
+      <c r="A2" s="93"/>
       <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
@@ -5959,25 +6223,27 @@
       <c r="C4" s="29"/>
       <c r="D4" s="34"/>
       <c r="E4" s="48"/>
-      <c r="F4" s="82">
+      <c r="F4" s="73">
         <v>9201297066</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="82">
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="73">
         <v>8761321186</v>
       </c>
-      <c r="K4" s="85"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="86">
+      <c r="K4" s="76"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="77">
         <v>8830860795</v>
       </c>
       <c r="O4" s="53"/>
       <c r="P4" s="34"/>
       <c r="Q4" s="34"/>
-      <c r="R4" s="57"/>
+      <c r="R4" s="70">
+        <v>7614226717</v>
+      </c>
       <c r="S4" s="66"/>
       <c r="T4" s="19"/>
       <c r="U4" s="19"/>
@@ -5994,25 +6260,27 @@
       <c r="C5" s="30"/>
       <c r="D5" s="34"/>
       <c r="E5" s="48"/>
-      <c r="F5" s="82">
+      <c r="F5" s="73">
         <v>9201297066</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="82">
+      <c r="G5" s="74"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="73">
         <v>8761321186</v>
       </c>
-      <c r="K5" s="85"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="86">
+      <c r="K5" s="76"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="77">
         <v>8830860795</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="34"/>
       <c r="Q5" s="34"/>
-      <c r="R5" s="57"/>
+      <c r="R5" s="71">
+        <v>7614226717</v>
+      </c>
       <c r="S5" s="67"/>
       <c r="V5" s="15"/>
     </row>
@@ -6024,25 +6292,27 @@
       <c r="C6" s="30"/>
       <c r="D6" s="34"/>
       <c r="E6" s="48"/>
-      <c r="F6" s="82">
+      <c r="F6" s="73">
         <v>5268508210</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="82">
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="73">
         <v>5700480153</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="86">
+      <c r="K6" s="76"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="77">
         <v>6070494998</v>
       </c>
       <c r="O6" s="53"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
-      <c r="R6" s="10"/>
+      <c r="R6" s="70">
+        <v>4374573648</v>
+      </c>
       <c r="S6" s="67"/>
       <c r="V6" s="15"/>
     </row>
@@ -6054,25 +6324,27 @@
       <c r="C7" s="30"/>
       <c r="D7" s="34"/>
       <c r="E7" s="48"/>
-      <c r="F7" s="82">
+      <c r="F7" s="73">
         <v>4363720292</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="82">
+      <c r="G7" s="74"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="73">
         <v>4414950181</v>
       </c>
-      <c r="K7" s="85"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="86">
+      <c r="K7" s="76"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="77">
         <v>4674829859</v>
       </c>
       <c r="O7" s="53"/>
       <c r="P7" s="34"/>
       <c r="Q7" s="34"/>
-      <c r="R7" s="10"/>
+      <c r="R7" s="70">
+        <v>3694143781</v>
+      </c>
       <c r="S7" s="67"/>
       <c r="V7" s="15"/>
     </row>
@@ -6084,25 +6356,27 @@
       <c r="C8" s="30"/>
       <c r="D8" s="34"/>
       <c r="E8" s="48"/>
-      <c r="F8" s="82">
+      <c r="F8" s="73">
         <v>193471915</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="82">
+      <c r="G8" s="78"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="73">
         <v>304540194</v>
       </c>
-      <c r="K8" s="85"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="86">
+      <c r="K8" s="76"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="77">
         <v>273402548</v>
       </c>
       <c r="O8" s="53"/>
       <c r="P8" s="34"/>
       <c r="Q8" s="34"/>
-      <c r="R8" s="57"/>
+      <c r="R8" s="70">
+        <v>202171162</v>
+      </c>
       <c r="S8" s="67"/>
       <c r="V8" s="15"/>
     </row>
@@ -6114,25 +6388,27 @@
       <c r="C9" s="30"/>
       <c r="D9" s="34"/>
       <c r="E9" s="48"/>
-      <c r="F9" s="82">
+      <c r="F9" s="73">
         <v>26762163</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="82">
+      <c r="G9" s="74"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="73">
         <v>15804477</v>
       </c>
-      <c r="K9" s="85"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="86">
+      <c r="K9" s="76"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="77">
         <v>13806381</v>
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="34"/>
       <c r="Q9" s="34"/>
-      <c r="R9" s="57"/>
+      <c r="R9" s="70">
+        <v>9832355</v>
+      </c>
       <c r="S9" s="67"/>
       <c r="V9" s="15"/>
     </row>
@@ -6144,25 +6420,27 @@
       <c r="C10" s="30"/>
       <c r="D10" s="34"/>
       <c r="E10" s="48"/>
-      <c r="F10" s="82">
+      <c r="F10" s="73">
         <v>182065269</v>
       </c>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="82">
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="73">
         <v>185570228</v>
       </c>
-      <c r="K10" s="85"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="86">
+      <c r="K10" s="76"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="77">
         <v>212989851</v>
       </c>
       <c r="O10" s="53"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="33"/>
-      <c r="R10" s="57"/>
+      <c r="R10" s="70">
+        <v>176140246</v>
+      </c>
       <c r="S10" s="67"/>
       <c r="V10" s="23"/>
     </row>
@@ -6174,25 +6452,27 @@
       <c r="C11" s="30"/>
       <c r="D11" s="34"/>
       <c r="E11" s="48"/>
-      <c r="F11" s="82">
+      <c r="F11" s="73">
         <v>502388296</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="82">
+      <c r="G11" s="74"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="73">
         <v>778935597</v>
       </c>
-      <c r="K11" s="85"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="86">
+      <c r="K11" s="76"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="77">
         <v>895551358</v>
       </c>
       <c r="O11" s="53"/>
       <c r="P11" s="34"/>
       <c r="Q11" s="34"/>
-      <c r="R11" s="57"/>
+      <c r="R11" s="70">
+        <v>292786104</v>
+      </c>
       <c r="S11" s="67"/>
       <c r="V11" s="15"/>
     </row>
@@ -6204,25 +6484,27 @@
       <c r="C12" s="30"/>
       <c r="D12" s="34"/>
       <c r="E12" s="48"/>
-      <c r="F12" s="82">
+      <c r="F12" s="73">
         <v>100275</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="82">
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="73">
         <v>679476</v>
       </c>
-      <c r="K12" s="85"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="86">
+      <c r="K12" s="76"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="77">
         <v>-84999</v>
       </c>
       <c r="O12" s="53"/>
       <c r="P12" s="34"/>
       <c r="Q12" s="34"/>
-      <c r="R12" s="57"/>
+      <c r="R12" s="70">
+        <v>-500000</v>
+      </c>
       <c r="S12" s="67"/>
       <c r="V12" s="15"/>
     </row>
@@ -6234,25 +6516,27 @@
       <c r="C13" s="30"/>
       <c r="D13" s="34"/>
       <c r="E13" s="48"/>
-      <c r="F13" s="82">
+      <c r="F13" s="73">
         <v>-2674334</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="82">
+      <c r="G13" s="74"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="73">
         <v>6935829</v>
       </c>
-      <c r="K13" s="85"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="86">
+      <c r="K13" s="76"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="77">
         <v>3066189</v>
       </c>
       <c r="O13" s="53"/>
       <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
-      <c r="R13" s="10"/>
+      <c r="R13" s="71">
+        <v>2109937</v>
+      </c>
       <c r="S13" s="67"/>
       <c r="V13" s="15"/>
     </row>
@@ -6264,25 +6548,27 @@
       <c r="C14" s="30"/>
       <c r="D14" s="34"/>
       <c r="E14" s="48"/>
-      <c r="F14" s="82">
+      <c r="F14" s="73">
         <v>472966663</v>
       </c>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="82">
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="73">
         <v>444068189</v>
       </c>
-      <c r="K14" s="85"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="86">
+      <c r="K14" s="76"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="77">
         <v>352287304</v>
       </c>
       <c r="O14" s="53"/>
       <c r="P14" s="33"/>
       <c r="Q14" s="33"/>
-      <c r="R14" s="10"/>
+      <c r="R14" s="70">
+        <v>315399461</v>
+      </c>
       <c r="S14" s="67"/>
       <c r="V14" s="23"/>
     </row>
@@ -6294,25 +6580,27 @@
       <c r="C15" s="30"/>
       <c r="D15" s="34"/>
       <c r="E15" s="48"/>
-      <c r="F15" s="82">
+      <c r="F15" s="73">
         <v>438033337</v>
       </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="82">
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="73">
         <v>340332126</v>
       </c>
-      <c r="K15" s="85"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="86">
+      <c r="K15" s="76"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="77">
         <v>310937218</v>
       </c>
       <c r="O15" s="53"/>
       <c r="P15" s="33"/>
       <c r="Q15" s="33"/>
-      <c r="R15" s="57"/>
+      <c r="R15" s="71">
+        <v>265462186</v>
+      </c>
       <c r="S15" s="67"/>
       <c r="V15" s="23"/>
     </row>
@@ -6324,25 +6612,27 @@
       <c r="C16" s="30"/>
       <c r="D16" s="34"/>
       <c r="E16" s="48"/>
-      <c r="F16" s="82">
+      <c r="F16" s="73">
         <v>4403081185</v>
       </c>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="82">
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="73">
         <v>3511845051</v>
       </c>
-      <c r="K16" s="85"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="86">
+      <c r="K16" s="76"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="77">
         <v>3115719290</v>
       </c>
       <c r="O16" s="53"/>
       <c r="P16" s="33"/>
       <c r="Q16" s="33"/>
-      <c r="R16" s="57"/>
+      <c r="R16" s="71">
+        <v>3557162467</v>
+      </c>
       <c r="S16" s="67"/>
       <c r="V16" s="23"/>
     </row>
@@ -6354,25 +6644,27 @@
       <c r="C17" s="30"/>
       <c r="D17" s="34"/>
       <c r="E17" s="48"/>
-      <c r="F17" s="82">
+      <c r="F17" s="73">
         <v>44838537</v>
       </c>
-      <c r="G17" s="83"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="82">
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="73">
         <v>42430974</v>
       </c>
-      <c r="K17" s="85"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="86">
+      <c r="K17" s="76"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="77">
         <v>25411960</v>
       </c>
       <c r="O17" s="53"/>
       <c r="P17" s="34"/>
       <c r="Q17" s="33"/>
-      <c r="R17" s="10"/>
+      <c r="R17" s="70">
+        <v>102541001</v>
+      </c>
       <c r="S17" s="67"/>
       <c r="V17" s="23"/>
     </row>
@@ -6384,25 +6676,27 @@
       <c r="C18" s="30"/>
       <c r="D18" s="34"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="82">
+      <c r="F18" s="73">
         <v>211608</v>
       </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="82">
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="73">
         <v>1516024</v>
       </c>
-      <c r="K18" s="85"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="86">
+      <c r="K18" s="76"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="77">
         <v>5078206</v>
       </c>
       <c r="O18" s="53"/>
       <c r="P18" s="34"/>
       <c r="Q18" s="33"/>
-      <c r="R18" s="57"/>
+      <c r="R18" s="71">
+        <v>90210095</v>
+      </c>
       <c r="S18" s="67"/>
       <c r="V18" s="23"/>
     </row>
@@ -6414,25 +6708,27 @@
       <c r="C19" s="30"/>
       <c r="D19" s="34"/>
       <c r="E19" s="48"/>
-      <c r="F19" s="82">
+      <c r="F19" s="73">
         <v>30643808</v>
       </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="82">
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="73">
         <v>659221149</v>
       </c>
-      <c r="K19" s="85"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="86">
+      <c r="K19" s="76"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="77">
         <v>37081034</v>
       </c>
       <c r="O19" s="54"/>
       <c r="P19" s="34"/>
       <c r="Q19" s="34"/>
-      <c r="R19" s="57"/>
+      <c r="R19" s="70">
+        <v>32206354</v>
+      </c>
       <c r="S19" s="67"/>
       <c r="V19" s="15"/>
     </row>
@@ -6444,25 +6740,27 @@
       <c r="C20" s="31"/>
       <c r="D20" s="34"/>
       <c r="E20" s="48"/>
-      <c r="F20" s="82">
+      <c r="F20" s="73">
         <v>3782604</v>
       </c>
-      <c r="G20" s="83"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="82">
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="73">
         <v>629723205</v>
       </c>
-      <c r="K20" s="85"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="86">
+      <c r="K20" s="76"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="77">
         <v>7684626</v>
       </c>
       <c r="O20" s="53"/>
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
-      <c r="R20" s="57"/>
+      <c r="R20" s="71">
+        <v>9048053</v>
+      </c>
       <c r="S20" s="68"/>
       <c r="V20" s="15"/>
     </row>
@@ -6474,25 +6772,27 @@
       <c r="C21" s="30"/>
       <c r="D21" s="34"/>
       <c r="E21" s="48"/>
-      <c r="F21" s="82">
+      <c r="F21" s="73">
         <v>4417275914</v>
       </c>
-      <c r="G21" s="83"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="82">
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="73">
         <v>2895054876</v>
       </c>
-      <c r="K21" s="85"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="86">
+      <c r="K21" s="76"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="77">
         <v>3104050216</v>
       </c>
       <c r="O21" s="54"/>
       <c r="P21" s="34"/>
       <c r="Q21" s="34"/>
-      <c r="R21" s="57"/>
+      <c r="R21" s="71">
+        <v>3627497114</v>
+      </c>
       <c r="S21" s="67"/>
       <c r="V21" s="15"/>
     </row>
@@ -6504,25 +6804,27 @@
       <c r="C22" s="30"/>
       <c r="D22" s="34"/>
       <c r="E22" s="48"/>
-      <c r="F22" s="82">
+      <c r="F22" s="73">
         <v>980138120</v>
       </c>
-      <c r="G22" s="83"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="82">
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="73">
         <v>305144944</v>
       </c>
-      <c r="K22" s="85"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="86">
+      <c r="K22" s="76"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="77">
         <v>807730901</v>
       </c>
       <c r="O22" s="54"/>
       <c r="P22" s="34"/>
       <c r="Q22" s="34"/>
-      <c r="R22" s="57"/>
+      <c r="R22" s="70">
+        <v>851870234</v>
+      </c>
       <c r="S22" s="67"/>
       <c r="V22" s="15"/>
     </row>
@@ -6534,25 +6836,27 @@
       <c r="C23" s="30"/>
       <c r="D23" s="34"/>
       <c r="E23" s="48"/>
-      <c r="F23" s="82">
+      <c r="F23" s="73">
         <v>3437137794</v>
       </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="82">
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="73">
         <v>2589909932</v>
       </c>
-      <c r="K23" s="85"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="86">
+      <c r="K23" s="76"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="77">
         <v>2296319315</v>
       </c>
       <c r="O23" s="53"/>
       <c r="P23" s="33"/>
       <c r="Q23" s="34"/>
-      <c r="R23" s="57"/>
+      <c r="R23" s="70">
+        <v>2775626880</v>
+      </c>
       <c r="S23" s="67"/>
       <c r="V23" s="15"/>
     </row>
@@ -6564,25 +6868,27 @@
       <c r="C24" s="30"/>
       <c r="D24" s="34"/>
       <c r="E24" s="48"/>
-      <c r="F24" s="82">
+      <c r="F24" s="73">
         <v>3346063867</v>
       </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="82">
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="73">
         <v>2506629408</v>
       </c>
-      <c r="K24" s="85"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="86">
+      <c r="K24" s="76"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="77">
         <v>2227907831</v>
       </c>
       <c r="O24" s="53"/>
       <c r="P24" s="34"/>
       <c r="Q24" s="34"/>
-      <c r="R24" s="57"/>
+      <c r="R24" s="70">
+        <v>2707743147</v>
+      </c>
       <c r="S24" s="67"/>
       <c r="V24" s="15"/>
     </row>
@@ -6594,25 +6900,27 @@
       <c r="C25" s="30"/>
       <c r="D25" s="34"/>
       <c r="E25" s="48"/>
-      <c r="F25" s="82">
+      <c r="F25" s="73">
         <v>91073927</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="82">
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="73">
         <v>83280524</v>
       </c>
-      <c r="K25" s="85"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="86">
+      <c r="K25" s="76"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="77">
         <v>68411484</v>
       </c>
       <c r="O25" s="53"/>
       <c r="P25" s="34"/>
       <c r="Q25" s="34"/>
-      <c r="R25" s="57"/>
+      <c r="R25" s="70">
+        <v>67883733</v>
+      </c>
       <c r="S25" s="67"/>
       <c r="V25" s="15"/>
     </row>
@@ -6624,25 +6932,27 @@
       <c r="C26" s="30"/>
       <c r="D26" s="34"/>
       <c r="E26" s="48"/>
-      <c r="F26" s="82">
+      <c r="F26" s="73">
         <v>420906148</v>
       </c>
-      <c r="G26" s="83"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="82">
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="73">
         <v>-67406144</v>
       </c>
-      <c r="K26" s="85"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="86">
+      <c r="K26" s="76"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="77">
         <v>93030727</v>
       </c>
       <c r="O26" s="53"/>
       <c r="P26" s="34"/>
       <c r="Q26" s="34"/>
-      <c r="R26" s="57"/>
+      <c r="R26" s="70">
+        <v>14452952</v>
+      </c>
       <c r="S26" s="67"/>
       <c r="V26" s="15"/>
     </row>
@@ -6654,25 +6964,27 @@
       <c r="C27" s="30"/>
       <c r="D27" s="34"/>
       <c r="E27" s="48"/>
-      <c r="F27" s="82">
+      <c r="F27" s="73">
         <v>420906148</v>
       </c>
-      <c r="G27" s="83"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="82">
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="73">
         <v>-67406144</v>
       </c>
-      <c r="K27" s="85"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="86">
+      <c r="K27" s="76"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="77">
         <v>93030727</v>
       </c>
       <c r="O27" s="53"/>
       <c r="P27" s="34"/>
       <c r="Q27" s="33"/>
-      <c r="R27" s="57"/>
+      <c r="R27" s="70">
+        <v>14452952</v>
+      </c>
       <c r="S27" s="67"/>
       <c r="V27" s="15"/>
     </row>
@@ -6684,19 +6996,19 @@
       <c r="C28" s="30"/>
       <c r="D28" s="34"/>
       <c r="E28" s="48"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="86"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="77"/>
       <c r="O28" s="53"/>
       <c r="P28" s="34"/>
       <c r="Q28" s="34"/>
-      <c r="R28" s="57"/>
+      <c r="R28" s="70"/>
       <c r="S28" s="67"/>
       <c r="V28" s="23"/>
     </row>
@@ -6708,25 +7020,27 @@
       <c r="C29" s="39"/>
       <c r="D29" s="40"/>
       <c r="E29" s="49"/>
-      <c r="F29" s="82">
+      <c r="F29" s="73">
         <v>420906148</v>
       </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="82">
+      <c r="G29" s="74"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="73">
         <v>-67406144</v>
       </c>
-      <c r="K29" s="85"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="86">
+      <c r="K29" s="76"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="77">
         <v>93030727</v>
       </c>
       <c r="O29" s="55"/>
       <c r="P29" s="34"/>
       <c r="Q29" s="34"/>
-      <c r="R29" s="57"/>
+      <c r="R29" s="70">
+        <v>14452952</v>
+      </c>
       <c r="S29" s="67"/>
       <c r="V29" s="15"/>
     </row>
@@ -6738,25 +7052,27 @@
       <c r="C30" s="39"/>
       <c r="D30" s="40"/>
       <c r="E30" s="49"/>
-      <c r="F30" s="82">
+      <c r="F30" s="73">
         <v>420906148</v>
       </c>
-      <c r="G30" s="83"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="82">
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="73">
         <v>-67406144</v>
       </c>
-      <c r="K30" s="85"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="86">
+      <c r="K30" s="76"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="77">
         <v>93030727</v>
       </c>
       <c r="O30" s="55"/>
       <c r="P30" s="34"/>
       <c r="Q30" s="34"/>
-      <c r="R30" s="57"/>
+      <c r="R30" s="70">
+        <v>14452952</v>
+      </c>
       <c r="S30" s="67"/>
       <c r="V30" s="15"/>
     </row>
@@ -6768,25 +7084,27 @@
       <c r="C31" s="30"/>
       <c r="D31" s="34"/>
       <c r="E31" s="48"/>
-      <c r="F31" s="82">
+      <c r="F31" s="73">
         <v>3858043942</v>
       </c>
-      <c r="G31" s="83"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="82">
+      <c r="G31" s="74"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="73">
         <v>2522503788</v>
       </c>
-      <c r="K31" s="85"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="86">
+      <c r="K31" s="76"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="77">
         <v>2389350042</v>
       </c>
       <c r="O31" s="53"/>
       <c r="P31" s="33"/>
       <c r="Q31" s="34"/>
-      <c r="R31" s="57"/>
+      <c r="R31" s="70">
+        <v>2790079832</v>
+      </c>
       <c r="S31" s="67"/>
       <c r="V31" s="15"/>
     </row>
@@ -6798,25 +7116,27 @@
       <c r="C32" s="30"/>
       <c r="D32" s="34"/>
       <c r="E32" s="48"/>
-      <c r="F32" s="82">
+      <c r="F32" s="73">
         <v>3766970015</v>
       </c>
-      <c r="G32" s="83"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="82">
+      <c r="G32" s="74"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="73">
         <v>2439223264</v>
       </c>
-      <c r="K32" s="85"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="86">
+      <c r="K32" s="76"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="77">
         <v>2320938558</v>
       </c>
       <c r="O32" s="53"/>
       <c r="P32" s="33"/>
       <c r="Q32" s="34"/>
-      <c r="R32" s="57"/>
+      <c r="R32" s="70">
+        <v>2722196099</v>
+      </c>
       <c r="S32" s="67"/>
       <c r="V32" s="15"/>
     </row>
@@ -6828,25 +7148,27 @@
       <c r="C33" s="31"/>
       <c r="D33" s="30"/>
       <c r="E33" s="48"/>
-      <c r="F33" s="82">
+      <c r="F33" s="73">
         <v>91073927</v>
       </c>
-      <c r="G33" s="83"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="82">
+      <c r="G33" s="74"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="73">
         <v>83280524</v>
       </c>
-      <c r="K33" s="85"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="86">
+      <c r="K33" s="76"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="77">
         <v>68411484</v>
       </c>
       <c r="O33" s="53"/>
       <c r="P33" s="33"/>
       <c r="Q33" s="34"/>
-      <c r="R33" s="57"/>
+      <c r="R33" s="70">
+        <v>67883733</v>
+      </c>
       <c r="S33" s="68"/>
       <c r="V33" s="15"/>
     </row>
@@ -6858,19 +7180,19 @@
       <c r="C34" s="30"/>
       <c r="D34" s="34"/>
       <c r="E34" s="48"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="86"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="77"/>
       <c r="O34" s="53"/>
       <c r="P34" s="34"/>
       <c r="Q34" s="34"/>
-      <c r="R34" s="57"/>
+      <c r="R34" s="70"/>
       <c r="S34" s="67"/>
       <c r="V34" s="15"/>
     </row>
@@ -6882,25 +7204,27 @@
       <c r="C35" s="30"/>
       <c r="D35" s="34"/>
       <c r="E35" s="48"/>
-      <c r="F35" s="88">
+      <c r="F35" s="79">
         <v>0.66420000000000001</v>
       </c>
-      <c r="G35" s="89"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="88">
+      <c r="G35" s="80"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="79">
         <v>0.49759999999999999</v>
       </c>
-      <c r="K35" s="91"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="93">
+      <c r="K35" s="82"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="84">
         <v>0.44219999999999998</v>
       </c>
       <c r="O35" s="53"/>
       <c r="P35" s="34"/>
       <c r="Q35" s="34"/>
-      <c r="R35" s="57"/>
+      <c r="R35" s="70">
+        <v>0.53749999999999998</v>
+      </c>
       <c r="S35" s="67"/>
       <c r="V35" s="15"/>
     </row>
@@ -6918,7 +7242,7 @@
       <c r="K36" s="53"/>
       <c r="L36" s="33"/>
       <c r="M36" s="33"/>
-      <c r="N36" s="79"/>
+      <c r="N36" s="70"/>
       <c r="O36" s="54"/>
       <c r="P36" s="34"/>
       <c r="Q36" s="34"/>
@@ -7561,10 +7885,10 @@
   <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N41" sqref="H41:N41"/>
+      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7592,48 +7916,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="75">
+      <c r="B1" s="92">
         <v>2017</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="77">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="94">
         <v>2016</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77">
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94">
         <v>2015</v>
       </c>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77">
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94">
         <v>2014</v>
       </c>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="75">
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="92">
         <v>2013</v>
       </c>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75">
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92">
         <v>2012</v>
       </c>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
     </row>
     <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="76"/>
+      <c r="A2" s="93"/>
       <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
@@ -7728,13 +8052,13 @@
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O3" s="29"/>
       <c r="P3" s="29"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="14" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="S3" s="29"/>
       <c r="T3" s="29"/>
@@ -7781,25 +8105,27 @@
       <c r="C5" s="28"/>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
-      <c r="F5" s="79">
+      <c r="F5" s="70">
         <v>9971229781</v>
       </c>
       <c r="G5" s="59"/>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
-      <c r="J5" s="86">
+      <c r="J5" s="77">
         <v>9190479563</v>
       </c>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="86">
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="77">
         <v>9091697622</v>
       </c>
       <c r="O5" s="32"/>
       <c r="P5" s="32"/>
       <c r="Q5" s="32"/>
-      <c r="R5" s="57"/>
+      <c r="R5" s="71">
+        <v>8333973935</v>
+      </c>
       <c r="S5" s="28"/>
       <c r="T5" s="28"/>
       <c r="U5" s="8"/>
@@ -7813,25 +8139,27 @@
       <c r="C6" s="28"/>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="79">
+      <c r="F6" s="70">
         <v>54626277</v>
       </c>
       <c r="G6" s="59"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
-      <c r="J6" s="86">
+      <c r="J6" s="77">
         <v>81362913</v>
       </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="86">
+      <c r="K6" s="85"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="77">
         <v>37156448</v>
       </c>
       <c r="O6" s="32"/>
       <c r="P6" s="32"/>
       <c r="Q6" s="32"/>
-      <c r="R6" s="10"/>
+      <c r="R6" s="71">
+        <v>33439918</v>
+      </c>
       <c r="S6" s="28"/>
       <c r="T6" s="28"/>
       <c r="U6" s="8"/>
@@ -7845,25 +8173,27 @@
       <c r="C7" s="28"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="79">
+      <c r="F7" s="70">
         <v>10025856058</v>
       </c>
       <c r="G7" s="59"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
-      <c r="J7" s="86">
+      <c r="J7" s="77">
         <v>9271842476</v>
       </c>
-      <c r="K7" s="94"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="86">
+      <c r="K7" s="85"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="77">
         <v>9128854070</v>
       </c>
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
       <c r="Q7" s="32"/>
-      <c r="R7" s="10"/>
+      <c r="R7" s="70">
+        <v>8367413853</v>
+      </c>
       <c r="S7" s="28"/>
       <c r="T7" s="28"/>
       <c r="U7" s="8"/>
@@ -7877,25 +8207,27 @@
       <c r="C8" s="28"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="79">
+      <c r="F8" s="70">
         <v>2437465202</v>
       </c>
       <c r="G8" s="60"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
-      <c r="J8" s="86">
+      <c r="J8" s="77">
         <v>2796027402</v>
       </c>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="86">
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="77">
         <v>3284668273</v>
       </c>
       <c r="O8" s="42"/>
       <c r="P8" s="32"/>
       <c r="Q8" s="32"/>
-      <c r="R8" s="10"/>
+      <c r="R8" s="71">
+        <v>3496976834</v>
+      </c>
       <c r="S8" s="28"/>
       <c r="T8" s="28"/>
       <c r="U8" s="8"/>
@@ -7909,25 +8241,27 @@
       <c r="C9" s="28"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="79">
+      <c r="F9" s="70">
         <v>838760202</v>
       </c>
       <c r="G9" s="59"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
-      <c r="J9" s="86">
+      <c r="J9" s="77">
         <v>818787472</v>
       </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="86">
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="77">
         <v>764894539</v>
       </c>
       <c r="O9" s="32"/>
       <c r="P9" s="32"/>
       <c r="Q9" s="32"/>
-      <c r="R9" s="10"/>
+      <c r="R9" s="70">
+        <v>533206614</v>
+      </c>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
       <c r="U9" s="8"/>
@@ -7941,25 +8275,27 @@
       <c r="C10" s="28"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="79">
+      <c r="F10" s="70">
         <v>1110091302</v>
       </c>
       <c r="G10" s="59"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
-      <c r="J10" s="86">
+      <c r="J10" s="77">
         <v>1078613749</v>
       </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="86">
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="77">
         <v>1218204714</v>
       </c>
       <c r="O10" s="32"/>
       <c r="P10" s="42"/>
       <c r="Q10" s="42"/>
-      <c r="R10" s="10"/>
+      <c r="R10" s="70">
+        <v>1192936003</v>
+      </c>
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
       <c r="U10" s="8"/>
@@ -7973,25 +8309,27 @@
       <c r="C11" s="28"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="79">
+      <c r="F11" s="70">
         <v>175790848</v>
       </c>
       <c r="G11" s="59"/>
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="86">
+      <c r="J11" s="77">
         <v>102520728</v>
       </c>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="86">
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="77">
         <v>119441128</v>
       </c>
       <c r="O11" s="32"/>
       <c r="P11" s="32"/>
       <c r="Q11" s="32"/>
-      <c r="R11" s="10"/>
+      <c r="R11" s="70">
+        <v>60132242</v>
+      </c>
       <c r="S11" s="28"/>
       <c r="T11" s="28"/>
       <c r="U11" s="8"/>
@@ -8005,25 +8343,27 @@
       <c r="C12" s="28"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="79">
+      <c r="F12" s="70">
         <v>4562107554</v>
       </c>
       <c r="G12" s="59"/>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="86">
+      <c r="J12" s="77">
         <v>4795949351</v>
       </c>
-      <c r="K12" s="94"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="86">
+      <c r="K12" s="85"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="77">
         <v>5387208654</v>
       </c>
       <c r="O12" s="42"/>
       <c r="P12" s="32"/>
       <c r="Q12" s="32"/>
-      <c r="R12" s="10"/>
+      <c r="R12" s="70">
+        <v>5283251693</v>
+      </c>
       <c r="S12" s="28"/>
       <c r="T12" s="28"/>
       <c r="U12" s="8"/>
@@ -8037,25 +8377,27 @@
       <c r="C13" s="28"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="79">
+      <c r="F13" s="70">
         <v>5463748504</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="86">
+      <c r="J13" s="77">
         <v>4475893125</v>
       </c>
-      <c r="K13" s="94"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="86">
+      <c r="K13" s="85"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="77">
         <v>3741645416</v>
       </c>
       <c r="O13" s="42"/>
       <c r="P13" s="32"/>
       <c r="Q13" s="32"/>
-      <c r="R13" s="10"/>
+      <c r="R13" s="70">
+        <v>3084162160</v>
+      </c>
       <c r="S13" s="28"/>
       <c r="T13" s="28"/>
       <c r="U13" s="8"/>
@@ -8069,19 +8411,19 @@
       <c r="C14" s="28"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="79"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="59"/>
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="86"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="77"/>
       <c r="O14" s="32"/>
       <c r="P14" s="42"/>
       <c r="Q14" s="42"/>
-      <c r="R14" s="10"/>
+      <c r="R14" s="70"/>
       <c r="S14" s="28"/>
       <c r="T14" s="28"/>
       <c r="U14" s="8"/>
@@ -8095,25 +8437,27 @@
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
-      <c r="F15" s="79">
+      <c r="F15" s="70">
         <v>3114265253</v>
       </c>
       <c r="G15" s="59"/>
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
-      <c r="J15" s="86">
+      <c r="J15" s="77">
         <v>1041006240</v>
       </c>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="86">
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="77">
         <v>1749633714</v>
       </c>
       <c r="O15" s="32"/>
       <c r="P15" s="42"/>
       <c r="Q15" s="42"/>
-      <c r="R15" s="10"/>
+      <c r="R15" s="70">
+        <v>890733560</v>
+      </c>
       <c r="S15" s="28"/>
       <c r="T15" s="28"/>
       <c r="U15" s="8"/>
@@ -8127,25 +8471,27 @@
       <c r="C16" s="28"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="79">
+      <c r="F16" s="70">
         <v>180049103</v>
       </c>
       <c r="G16" s="59"/>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="86">
+      <c r="J16" s="77">
         <v>240315712</v>
       </c>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="86">
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="77">
         <v>161227972</v>
       </c>
       <c r="O16" s="32"/>
       <c r="P16" s="42"/>
       <c r="Q16" s="42"/>
-      <c r="R16" s="57"/>
+      <c r="R16" s="70">
+        <v>158243780</v>
+      </c>
       <c r="S16" s="28"/>
       <c r="T16" s="28"/>
       <c r="U16" s="8"/>
@@ -8159,25 +8505,27 @@
       <c r="C17" s="28"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="79">
+      <c r="F17" s="70">
         <v>395368117</v>
       </c>
       <c r="G17" s="59"/>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
-      <c r="J17" s="86">
+      <c r="J17" s="77">
         <v>606170697</v>
       </c>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="86">
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="77">
         <v>26980769</v>
       </c>
       <c r="O17" s="32"/>
       <c r="P17" s="32"/>
       <c r="Q17" s="42"/>
-      <c r="R17" s="57"/>
+      <c r="R17" s="70">
+        <v>85042666</v>
+      </c>
       <c r="S17" s="28"/>
       <c r="T17" s="28"/>
       <c r="U17" s="8"/>
@@ -8191,25 +8539,27 @@
       <c r="C18" s="28"/>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="79">
+      <c r="F18" s="70">
         <v>3689682473</v>
       </c>
       <c r="G18" s="59"/>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="86">
+      <c r="J18" s="77">
         <v>1887492649</v>
       </c>
-      <c r="K18" s="94"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="86">
+      <c r="K18" s="85"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="77">
         <v>1937842455</v>
       </c>
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
       <c r="Q18" s="42"/>
-      <c r="R18" s="57"/>
+      <c r="R18" s="70">
+        <v>1134020006</v>
+      </c>
       <c r="S18" s="28"/>
       <c r="T18" s="28"/>
       <c r="U18" s="8"/>
@@ -8223,25 +8573,27 @@
       <c r="C19" s="41"/>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="79">
+      <c r="F19" s="70">
         <v>583935224</v>
       </c>
       <c r="G19" s="59"/>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
-      <c r="J19" s="86">
+      <c r="J19" s="77">
         <v>786135407</v>
       </c>
-      <c r="K19" s="94"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="86">
+      <c r="K19" s="85"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="77">
         <v>410961074</v>
       </c>
       <c r="O19" s="32"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
-      <c r="R19" s="57"/>
+      <c r="R19" s="70">
+        <v>240842115</v>
+      </c>
       <c r="S19" s="41"/>
       <c r="T19" s="41"/>
       <c r="U19" s="21"/>
@@ -8255,25 +8607,27 @@
       <c r="C20" s="41"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="79">
+      <c r="F20" s="70">
         <v>3262506730</v>
       </c>
       <c r="G20" s="59"/>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
-      <c r="J20" s="86">
+      <c r="J20" s="77">
         <v>1386477678</v>
       </c>
-      <c r="K20" s="94"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="86">
+      <c r="K20" s="85"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="77">
         <v>1929821578</v>
       </c>
       <c r="O20" s="32"/>
       <c r="P20" s="32"/>
       <c r="Q20" s="32"/>
-      <c r="R20" s="10"/>
+      <c r="R20" s="70">
+        <v>1858047432</v>
+      </c>
       <c r="S20" s="41"/>
       <c r="T20" s="41"/>
       <c r="U20" s="21"/>
@@ -8287,25 +8641,25 @@
       <c r="C21" s="28"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="79" t="s">
-        <v>147</v>
+      <c r="F21" s="70" t="s">
+        <v>146</v>
       </c>
       <c r="G21" s="59"/>
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
-      <c r="J21" s="86">
+      <c r="J21" s="77">
         <v>1164000000</v>
       </c>
-      <c r="K21" s="94"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="86" t="s">
-        <v>147</v>
+      <c r="K21" s="85"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="77" t="s">
+        <v>146</v>
       </c>
       <c r="O21" s="32"/>
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
-      <c r="R21" s="10"/>
+      <c r="R21" s="72"/>
       <c r="S21" s="28"/>
       <c r="T21" s="28"/>
       <c r="U21" s="8"/>
@@ -8319,25 +8673,25 @@
       <c r="C22" s="28"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="79">
+      <c r="F22" s="70">
         <v>69000000</v>
       </c>
       <c r="G22" s="59"/>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
-      <c r="J22" s="86">
+      <c r="J22" s="77">
         <v>50000000</v>
       </c>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="86" t="s">
-        <v>147</v>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="77" t="s">
+        <v>146</v>
       </c>
       <c r="O22" s="32"/>
       <c r="P22" s="32"/>
       <c r="Q22" s="32"/>
-      <c r="R22" s="10"/>
+      <c r="R22" s="72"/>
       <c r="S22" s="28"/>
       <c r="T22" s="28"/>
       <c r="U22" s="8"/>
@@ -8351,25 +8705,27 @@
       <c r="C23" s="28"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="79">
+      <c r="F23" s="70">
         <v>3915441954</v>
       </c>
       <c r="G23" s="59"/>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
-      <c r="J23" s="86">
+      <c r="J23" s="77">
         <v>3386613085</v>
       </c>
-      <c r="K23" s="94"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="86">
+      <c r="K23" s="85"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="77">
         <v>2340782652</v>
       </c>
       <c r="O23" s="32"/>
       <c r="P23" s="32"/>
       <c r="Q23" s="32"/>
-      <c r="R23" s="10"/>
+      <c r="R23" s="70">
+        <v>2098889547</v>
+      </c>
       <c r="S23" s="28"/>
       <c r="T23" s="28"/>
       <c r="U23" s="8"/>
@@ -8383,25 +8739,27 @@
       <c r="C24" s="28"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="79">
+      <c r="F24" s="70">
         <v>-225759481</v>
       </c>
       <c r="G24" s="59"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
-      <c r="J24" s="86">
+      <c r="J24" s="77">
         <v>-1499120436</v>
       </c>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="86">
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="77">
         <v>-402940197</v>
       </c>
       <c r="O24" s="32"/>
       <c r="P24" s="42"/>
       <c r="Q24" s="32"/>
-      <c r="R24" s="10"/>
+      <c r="R24" s="70">
+        <v>-964869541</v>
+      </c>
       <c r="S24" s="28"/>
       <c r="T24" s="28"/>
       <c r="U24" s="8"/>
@@ -8415,19 +8773,19 @@
       <c r="C25" s="28"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="79"/>
+      <c r="F25" s="70"/>
       <c r="G25" s="59"/>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="86"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="77"/>
       <c r="O25" s="32"/>
       <c r="P25" s="32"/>
       <c r="Q25" s="32"/>
-      <c r="R25" s="57"/>
+      <c r="R25" s="72"/>
       <c r="S25" s="28"/>
       <c r="T25" s="28"/>
       <c r="U25" s="8"/>
@@ -8441,25 +8799,27 @@
       <c r="C26" s="28"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="79" t="s">
-        <v>147</v>
+      <c r="F26" s="70" t="s">
+        <v>146</v>
       </c>
       <c r="G26" s="59"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
-      <c r="J26" s="86">
+      <c r="J26" s="77">
         <v>121680000</v>
       </c>
-      <c r="K26" s="94"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="86">
+      <c r="K26" s="85"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="77">
         <v>60000000</v>
       </c>
       <c r="O26" s="32"/>
       <c r="P26" s="32"/>
       <c r="Q26" s="32"/>
-      <c r="R26" s="57"/>
+      <c r="R26" s="72" t="s">
+        <v>146</v>
+      </c>
       <c r="S26" s="28"/>
       <c r="T26" s="28"/>
       <c r="U26" s="8"/>
@@ -8473,25 +8833,27 @@
       <c r="C27" s="28"/>
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="79" t="s">
-        <v>147</v>
+      <c r="F27" s="70" t="s">
+        <v>146</v>
       </c>
       <c r="G27" s="59"/>
       <c r="H27" s="32"/>
       <c r="I27" s="32"/>
-      <c r="J27" s="86">
+      <c r="J27" s="77">
         <v>121680000</v>
       </c>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="86">
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="77">
         <v>60000000</v>
       </c>
       <c r="O27" s="42"/>
       <c r="P27" s="32"/>
       <c r="Q27" s="42"/>
-      <c r="R27" s="57"/>
+      <c r="R27" s="72" t="s">
+        <v>146</v>
+      </c>
       <c r="S27" s="28"/>
       <c r="T27" s="28"/>
       <c r="U27" s="8"/>
@@ -8505,25 +8867,27 @@
       <c r="C28" s="28"/>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="79">
+      <c r="F28" s="70">
         <v>4936522350</v>
       </c>
       <c r="G28" s="59"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
-      <c r="J28" s="86">
+      <c r="J28" s="77">
         <v>10951000000</v>
       </c>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="86">
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="77">
         <v>6695000000</v>
       </c>
       <c r="O28" s="42"/>
       <c r="P28" s="32"/>
       <c r="Q28" s="32"/>
-      <c r="R28" s="57"/>
+      <c r="R28" s="70">
+        <v>5236385000</v>
+      </c>
       <c r="S28" s="28"/>
       <c r="T28" s="28"/>
       <c r="U28" s="8"/>
@@ -8537,25 +8901,27 @@
       <c r="C29" s="28"/>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="79">
+      <c r="F29" s="70">
         <v>9400000000</v>
       </c>
       <c r="G29" s="59"/>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
-      <c r="J29" s="86">
+      <c r="J29" s="77">
         <v>11000000000</v>
       </c>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="86">
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="77">
         <v>3700000000</v>
       </c>
       <c r="O29" s="42"/>
       <c r="P29" s="32"/>
       <c r="Q29" s="32"/>
-      <c r="R29" s="57"/>
+      <c r="R29" s="70">
+        <v>4000000000</v>
+      </c>
       <c r="S29" s="28"/>
       <c r="T29" s="28"/>
       <c r="U29" s="8"/>
@@ -8569,25 +8935,25 @@
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="79" t="s">
-        <v>147</v>
+      <c r="F30" s="70" t="s">
+        <v>146</v>
       </c>
       <c r="G30" s="59"/>
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
-      <c r="J30" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="86" t="s">
-        <v>147</v>
+      <c r="J30" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="77" t="s">
+        <v>146</v>
       </c>
       <c r="O30" s="32"/>
       <c r="P30" s="32"/>
       <c r="Q30" s="32"/>
-      <c r="R30" s="10"/>
+      <c r="R30" s="72"/>
       <c r="S30" s="28"/>
       <c r="T30" s="28"/>
       <c r="U30" s="8"/>
@@ -8601,25 +8967,27 @@
       <c r="C31" s="28"/>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="79">
+      <c r="F31" s="70">
         <v>14336522350</v>
       </c>
       <c r="G31" s="59"/>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
-      <c r="J31" s="86">
+      <c r="J31" s="77">
         <v>22072680000</v>
       </c>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="86">
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="77">
         <v>10455000000</v>
       </c>
       <c r="O31" s="32"/>
       <c r="P31" s="32"/>
       <c r="Q31" s="32"/>
-      <c r="R31" s="57"/>
+      <c r="R31" s="70">
+        <v>9236385000</v>
+      </c>
       <c r="S31" s="28"/>
       <c r="T31" s="28"/>
       <c r="U31" s="8"/>
@@ -8633,25 +9001,27 @@
       <c r="C32" s="28"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="79">
+      <c r="F32" s="70">
         <v>16978147054</v>
       </c>
       <c r="G32" s="59"/>
       <c r="H32" s="32"/>
       <c r="I32" s="32"/>
-      <c r="J32" s="86">
+      <c r="J32" s="77">
         <v>22715041198</v>
       </c>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="86">
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="77">
         <v>10799033918</v>
       </c>
       <c r="O32" s="32"/>
       <c r="P32" s="32"/>
       <c r="Q32" s="32"/>
-      <c r="R32" s="57"/>
+      <c r="R32" s="70">
+        <v>9447918343</v>
+      </c>
       <c r="S32" s="28"/>
       <c r="T32" s="28"/>
       <c r="U32" s="8"/>
@@ -8665,25 +9035,27 @@
       <c r="C33" s="28"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="79">
+      <c r="F33" s="70">
         <v>2589370064</v>
       </c>
       <c r="G33" s="59"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
-      <c r="J33" s="86">
+      <c r="J33" s="77">
         <v>2790359366</v>
       </c>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="86">
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="77">
         <v>2792927613</v>
       </c>
       <c r="O33" s="42"/>
       <c r="P33" s="42"/>
       <c r="Q33" s="32"/>
-      <c r="R33" s="57"/>
+      <c r="R33" s="70">
+        <v>2161770081</v>
+      </c>
       <c r="S33" s="28"/>
       <c r="T33" s="28"/>
       <c r="U33" s="8"/>
@@ -8697,25 +9069,27 @@
       <c r="C34" s="28"/>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="79">
+      <c r="F34" s="70">
         <v>67770972</v>
       </c>
       <c r="G34" s="59"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
-      <c r="J34" s="86">
+      <c r="J34" s="77">
         <v>79250395</v>
       </c>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="86">
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="77">
         <v>45969330</v>
       </c>
       <c r="O34" s="42"/>
       <c r="P34" s="42"/>
       <c r="Q34" s="32"/>
-      <c r="R34" s="10"/>
+      <c r="R34" s="70">
+        <v>42272811</v>
+      </c>
       <c r="S34" s="28"/>
       <c r="T34" s="28"/>
       <c r="U34" s="8"/>
@@ -8729,25 +9103,27 @@
       <c r="C35" s="41"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="79">
+      <c r="F35" s="70">
         <v>33836355</v>
       </c>
       <c r="G35" s="59"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
-      <c r="J35" s="86">
+      <c r="J35" s="77">
         <v>31558693</v>
       </c>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="86">
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="77">
         <v>16666485</v>
       </c>
       <c r="O35" s="42"/>
       <c r="P35" s="42"/>
       <c r="Q35" s="32"/>
-      <c r="R35" s="10"/>
+      <c r="R35" s="70">
+        <v>23297236</v>
+      </c>
       <c r="S35" s="41"/>
       <c r="T35" s="41"/>
       <c r="U35" s="21"/>
@@ -8761,25 +9137,27 @@
       <c r="C36" s="28"/>
       <c r="D36" s="32"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="79">
+      <c r="F36" s="70">
         <v>19601353473</v>
       </c>
       <c r="G36" s="59"/>
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
-      <c r="J36" s="86">
+      <c r="J36" s="77">
         <v>25536959257</v>
       </c>
-      <c r="K36" s="94"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="86">
+      <c r="K36" s="85"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="77">
         <v>13608628016</v>
       </c>
       <c r="O36" s="32"/>
       <c r="P36" s="32"/>
       <c r="Q36" s="32"/>
-      <c r="R36" s="57"/>
+      <c r="R36" s="70">
+        <v>11632985660</v>
+      </c>
       <c r="S36" s="28"/>
       <c r="T36" s="28"/>
       <c r="U36" s="8"/>
@@ -8793,25 +9171,27 @@
       <c r="C37" s="28"/>
       <c r="D37" s="32"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="79">
+      <c r="F37" s="70">
         <v>-5264831123</v>
       </c>
       <c r="G37" s="59"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32"/>
-      <c r="J37" s="86">
+      <c r="J37" s="77">
         <v>-3464279257</v>
       </c>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="86">
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="77">
         <v>-3153628016</v>
       </c>
       <c r="O37" s="32"/>
       <c r="P37" s="32"/>
       <c r="Q37" s="32"/>
-      <c r="R37" s="57"/>
+      <c r="R37" s="70">
+        <v>-2396600660</v>
+      </c>
       <c r="S37" s="28"/>
       <c r="T37" s="28"/>
       <c r="U37" s="8"/>
@@ -8825,23 +9205,23 @@
       <c r="C38" s="28"/>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="79" t="s">
-        <v>147</v>
+      <c r="F38" s="70" t="s">
+        <v>146</v>
       </c>
       <c r="G38" s="59"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
-      <c r="J38" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="K38" s="94"/>
-      <c r="L38" s="94"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="86"/>
+      <c r="J38" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="77"/>
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
       <c r="Q38" s="32"/>
-      <c r="R38" s="57"/>
+      <c r="R38" s="72"/>
       <c r="S38" s="28"/>
       <c r="T38" s="28"/>
       <c r="U38" s="8"/>
@@ -8855,25 +9235,27 @@
       <c r="C39" s="28"/>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="79">
+      <c r="F39" s="70">
         <v>-26842100</v>
       </c>
       <c r="G39" s="59"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
-      <c r="J39" s="86">
+      <c r="J39" s="77">
         <v>-487506568</v>
       </c>
-      <c r="K39" s="94"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="86">
+      <c r="K39" s="85"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="77">
         <v>185077203</v>
       </c>
       <c r="O39" s="32"/>
       <c r="P39" s="32"/>
       <c r="Q39" s="32"/>
-      <c r="R39" s="10"/>
+      <c r="R39" s="70">
+        <v>-277308041</v>
+      </c>
       <c r="S39" s="28"/>
       <c r="T39" s="28"/>
       <c r="U39" s="8"/>
@@ -8887,25 +9269,27 @@
       <c r="C40" s="28"/>
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="79">
+      <c r="F40" s="70">
         <v>221115078</v>
       </c>
       <c r="G40" s="59"/>
       <c r="H40" s="32"/>
       <c r="I40" s="32"/>
-      <c r="J40" s="86">
+      <c r="J40" s="77">
         <v>708621646</v>
       </c>
-      <c r="K40" s="94"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="86">
+      <c r="K40" s="85"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="77">
         <v>523544443</v>
       </c>
       <c r="O40" s="32"/>
       <c r="P40" s="42"/>
       <c r="Q40" s="42"/>
-      <c r="R40" s="10"/>
+      <c r="R40" s="70">
+        <v>686484787</v>
+      </c>
       <c r="S40" s="28"/>
       <c r="T40" s="28"/>
       <c r="U40" s="8"/>
@@ -8919,25 +9303,27 @@
       <c r="C41" s="28"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="79">
+      <c r="F41" s="70">
         <v>194272978</v>
       </c>
       <c r="G41" s="59"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
-      <c r="J41" s="86">
+      <c r="J41" s="77">
         <v>221115078</v>
       </c>
-      <c r="K41" s="94"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="86">
+      <c r="K41" s="85"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="77">
         <v>708621646</v>
       </c>
       <c r="O41" s="32"/>
       <c r="P41" s="42"/>
       <c r="Q41" s="42"/>
-      <c r="R41" s="10"/>
+      <c r="R41" s="70">
+        <v>409176746</v>
+      </c>
       <c r="S41" s="28"/>
       <c r="T41" s="28"/>
       <c r="U41" s="8"/>
@@ -9402,666 +9788,320 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C2:C38"/>
+      <selection activeCell="G9" sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="69.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="35.75" style="81"/>
+    <col min="1" max="1" width="46.875" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="72" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="72" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="72">
+        <v>85</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="79">
-        <v>9190479563</v>
-      </c>
-      <c r="C2" s="80">
-        <v>9091697622</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="72">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="79">
-        <v>81362913</v>
-      </c>
-      <c r="C3" s="79">
-        <v>37156448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="72">
+        <v>100</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="79">
-        <v>9271842476</v>
-      </c>
-      <c r="C4" s="80">
-        <v>9128854070</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="72">
+        <v>100</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="79">
-        <v>2796027402</v>
-      </c>
-      <c r="C5" s="80">
-        <v>3284668273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="72">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="79">
-        <v>818787472</v>
-      </c>
-      <c r="C6" s="80">
-        <v>764894539</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="72">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="79">
-        <v>1078613749</v>
-      </c>
-      <c r="C7" s="80">
-        <v>1218204714</v>
-      </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="72">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="79">
-        <v>102520728</v>
-      </c>
-      <c r="C8" s="80">
-        <v>119441128</v>
-      </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="72">
+        <v>70</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="79">
-        <v>4795949351</v>
-      </c>
-      <c r="C9" s="79">
-        <v>5387208654</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="79">
-        <v>4475893125</v>
-      </c>
-      <c r="C10" s="79">
-        <v>3741645416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="79">
-        <v>1041006240</v>
-      </c>
-      <c r="C12" s="79">
-        <v>1749633714</v>
-      </c>
-      <c r="F12" s="45"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="79">
-        <v>240315712</v>
-      </c>
-      <c r="C13" s="80">
-        <v>161227972</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="79">
-        <v>606170697</v>
-      </c>
-      <c r="C14" s="80">
-        <v>26980769</v>
-      </c>
-      <c r="D14" s="45"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="79">
-        <v>1887492649</v>
-      </c>
-      <c r="C15" s="80">
-        <v>1937842455</v>
-      </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="79">
-        <v>786135407</v>
-      </c>
-      <c r="C16" s="79">
-        <v>410961074</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="79">
-        <v>1386477678</v>
-      </c>
-      <c r="C17" s="79">
-        <v>1929821578</v>
-      </c>
-      <c r="F17" s="45"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="79">
-        <v>1164000000</v>
-      </c>
-      <c r="C18" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="79">
-        <v>50000000</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="79">
-        <v>3386613085</v>
-      </c>
-      <c r="C20" s="79">
-        <v>2340782652</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="79">
-        <v>-1499120436</v>
-      </c>
-      <c r="C21" s="80">
-        <v>-402940197</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="45"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="79">
-        <v>121680000</v>
-      </c>
-      <c r="C23" s="80">
-        <v>60000000</v>
-      </c>
-      <c r="D23" s="45"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="79">
-        <v>121680000</v>
-      </c>
-      <c r="C24" s="80">
-        <v>60000000</v>
-      </c>
-      <c r="D24" s="45"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="79">
-        <v>10951000000</v>
-      </c>
-      <c r="C25" s="80">
-        <v>6695000000</v>
-      </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" s="79">
-        <v>11000000000</v>
-      </c>
-      <c r="C26" s="79">
-        <v>3700000000</v>
-      </c>
-      <c r="D26" s="45"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="79" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="79">
-        <v>22072680000</v>
-      </c>
-      <c r="C28" s="80">
-        <v>10455000000</v>
-      </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="79">
-        <v>22715041198</v>
-      </c>
-      <c r="C29" s="80">
-        <v>10799033918</v>
-      </c>
-      <c r="D29" s="45"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="79">
-        <v>2790359366</v>
-      </c>
-      <c r="C30" s="80">
-        <v>2792927613</v>
-      </c>
-      <c r="D30" s="45"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" s="79">
-        <v>79250395</v>
-      </c>
-      <c r="C31" s="80">
-        <v>45969330</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="79">
-        <v>31558693</v>
-      </c>
-      <c r="C32" s="79">
-        <v>16666485</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="79">
-        <v>25536959257</v>
-      </c>
-      <c r="C33" s="80">
-        <v>13608628016</v>
-      </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="79">
-        <v>-3464279257</v>
-      </c>
-      <c r="C34" s="80">
-        <v>-3153628016</v>
-      </c>
-      <c r="D34" s="45"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="45"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="79">
-        <v>-487506568</v>
-      </c>
-      <c r="C36" s="80">
-        <v>185077203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>128</v>
-      </c>
-      <c r="B37" s="79">
-        <v>708621646</v>
-      </c>
-      <c r="C37" s="80">
-        <v>523544443</v>
-      </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="79">
-        <v>221115078</v>
-      </c>
-      <c r="C38" s="80">
-        <v>708621646</v>
-      </c>
-      <c r="D38" s="45"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="79"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="79"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B42" s="79"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B44" s="79"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="45"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B47" s="79"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B48" s="79"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="79"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="45"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="79"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="45"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B51" s="79"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="45"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B52" s="79"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C53" s="80"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C54" s="80"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C55" s="80"/>
-      <c r="D55" s="45"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C56" s="80"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C57" s="80"/>
-      <c r="D57" s="45"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C61" s="80"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C62" s="80"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C63" s="80"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C65" s="80"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C66" s="80"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C70" s="80"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C72" s="80"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="45"/>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C73" s="80"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C75" s="80"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C76" s="80"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-    </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C79" s="80"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C81" s="80"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C82" s="80"/>
-      <c r="D82" s="45"/>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C83" s="80"/>
-      <c r="D83" s="45"/>
-    </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C84" s="80"/>
-      <c r="D84" s="45"/>
-    </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C85" s="80"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="45"/>
-    </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C86" s="80"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="45"/>
+        <v>171</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="72">
+        <v>100</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="70"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="70"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
